--- a/Document/进度/张朝帅.xlsx
+++ b/Document/进度/张朝帅.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WWW\github\201507banma\Document\进度\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
-    <sheet name="斑马进度记录 - 第一、二周工作安排表" sheetId="2" r:id="rId5"/>
-    <sheet name="斑马进度记录 - 第三、四周工作安排表" sheetId="3" r:id="rId6"/>
-    <sheet name="斑马进度记录 - 第五、六周工作安排表" sheetId="4" r:id="rId7"/>
-    <sheet name="斑马进度记录 - 第七、八周工作安排表" sheetId="5" r:id="rId8"/>
-    <sheet name="斑马进度记录 - 绘图" sheetId="6" r:id="rId9"/>
-    <sheet name="工作表 1 - 第一、二周工作安排表" sheetId="7" r:id="rId10"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
+    <sheet name="斑马进度记录 - 第一、二周工作安排表" sheetId="2" r:id="rId2"/>
+    <sheet name="斑马进度记录 - 第三、四周工作安排表" sheetId="3" r:id="rId3"/>
+    <sheet name="斑马进度记录 - 第五、六周工作安排表" sheetId="4" r:id="rId4"/>
+    <sheet name="斑马进度记录 - 第七、八周工作安排表" sheetId="5" r:id="rId5"/>
+    <sheet name="斑马进度记录 - 绘图" sheetId="6" r:id="rId6"/>
+    <sheet name="工作表 1 - 第一、二周工作安排表" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 表单上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -40,7 +47,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Verdana"/>
@@ -54,7 +61,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Verdana"/>
@@ -68,7 +75,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Verdana"/>
@@ -82,7 +89,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Verdana"/>
@@ -96,7 +103,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Verdana"/>
@@ -110,7 +117,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="12"/>
         <color indexed="12"/>
         <rFont val="Verdana"/>
@@ -161,16 +168,27 @@
     <t>1.后台现有功能整理  2.前台页面实现（首页、商品详情页、商品搜索页，主体功能以宝贝街做过的作为参考）</t>
   </si>
+  <si>
+    <t>登录注册修复，修改待定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>理清思路</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品查询，订单表设计不合理需修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="mm&quot;月&quot;dd&quot;日&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -187,23 +205,18 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -219,9 +232,17 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -580,209 +601,248 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="56">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="6" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff2e922a"/>
-      <rgbColor rgb="fffefefe"/>
-      <rgbColor rgb="ff357ca2"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF2E922A"/>
+      <rgbColor rgb="FFFEFEFE"/>
+      <rgbColor rgb="FF357CA2"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -796,7 +856,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>183254</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
@@ -817,7 +877,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -827,7 +887,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="457200">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -844,7 +904,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -860,7 +920,7 @@
             <a:t>PC商城= PC</a:t>
           </a:r>
           <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -875,7 +935,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -890,22 +950,9 @@
             </a:rPr>
             <a:t>APP=IOS,Android</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="457200">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="457200">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -922,7 +969,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -946,7 +993,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1138,7 +1185,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1147,7 +1194,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1156,7 +1203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1165,7 +1212,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1174,7 +1221,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1183,7 +1230,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1295,8 +1342,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1304,14 +1351,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1330,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,7 +1385,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1366,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1418,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1444,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1470,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1496,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1522,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1548,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1574,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1587,9 +1634,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1605,7 +1658,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1624,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1650,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1676,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1702,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1728,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1754,7 +1807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1780,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1806,7 +1859,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1832,7 +1885,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1858,7 +1911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1871,9 +1924,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1886,7 +1945,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1905,7 +1964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1935,7 +1994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1961,7 +2020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1987,7 +2046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2013,7 +2072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2039,7 +2098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2065,7 +2124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2091,7 +2150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2117,7 +2176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2143,7 +2202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2156,189 +2215,194 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10" style="1" customWidth="1"/>
+    <col min="2" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="50" customHeight="1">
+    <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="22" customHeight="1">
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
+    <row r="10" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" t="s" s="14">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
+    <row r="11" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" t="s" s="14">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="15">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
+    <row r="12" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" t="s" s="14">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
+    <row r="13" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
-      <c r="C13" t="s" s="14">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s" s="15">
+      <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
+    <row r="14" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
-      <c r="C14" t="s" s="14">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s" s="15">
+      <c r="D14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" t="s" s="18">
+    <row r="16" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="19">
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2346,207 +2410,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="21" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="21" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="21" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="21" customWidth="1"/>
-    <col min="9" max="256" width="9" style="21" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" style="19" customWidth="1"/>
+    <col min="2" max="7" width="21.19921875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="19" customWidth="1"/>
+    <col min="9" max="256" width="9" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" ht="18.8" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <v>40757</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="21">
         <v>40758</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="21">
         <v>40759</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="21">
         <v>40760</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="21">
         <v>40761</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="21">
         <v>40762</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="21">
         <v>40763</v>
       </c>
     </row>
-    <row r="3" ht="16.85" customHeight="1">
-      <c r="A3" t="s" s="27">
+    <row r="3" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="27">
+      <c r="D3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="27">
+      <c r="E3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="27">
+      <c r="F3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="27">
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s" s="27">
+      <c r="H3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="114.3" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" t="s" s="29">
+    <row r="4" spans="1:8" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" ht="93.8" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" ht="67.4" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" ht="18.8" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" ht="18.8" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" ht="18.8" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" ht="18.8" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" ht="18.8" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" ht="18.8" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" ht="18.8" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="C4" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2554,321 +2622,309 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="33" customWidth="1"/>
-    <col min="16" max="256" width="9" style="33" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" style="28" customWidth="1"/>
+    <col min="2" max="15" width="9.09765625" style="28" customWidth="1"/>
+    <col min="16" max="256" width="9" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <v>40764</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="21">
         <v>40765</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="21">
         <v>40766</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="21">
         <v>40767</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="21">
         <v>40768</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="21">
         <v>40769</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="21">
         <v>40770</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="21">
         <v>40771</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="21">
         <v>40772</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="21">
         <v>40773</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="21">
         <v>40774</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="21">
         <v>40775</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="21">
         <v>40776</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="21">
         <v>40777</v>
       </c>
     </row>
-    <row r="3" ht="18.25" customHeight="1">
-      <c r="A3" t="s" s="27">
+    <row r="3" spans="1:15" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="27">
+      <c r="D3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="27">
+      <c r="E3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="27">
+      <c r="F3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="27">
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s" s="27">
+      <c r="H3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s" s="27">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s" s="27">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s" s="27">
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s" s="27">
+      <c r="L3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s" s="27">
+      <c r="M3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s" s="27">
+      <c r="N3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s" s="27">
+      <c r="O3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="20.55" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
+    <row r="4" spans="1:15" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -2876,511 +2932,499 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="34" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="34" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="34" customWidth="1"/>
-    <col min="16" max="256" width="9" style="34" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" style="29" customWidth="1"/>
+    <col min="2" max="15" width="9.09765625" style="29" customWidth="1"/>
+    <col min="16" max="256" width="9" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <v>40778</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="21">
         <v>40779</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="21">
         <v>40780</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="21">
         <v>40781</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="21">
         <v>40782</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="21">
         <v>40783</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="21">
         <v>40784</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="21">
         <v>40785</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="21">
         <v>40786</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="21">
         <v>40787</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="21">
         <v>40788</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="21">
         <v>40789</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="21">
         <v>40790</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="21">
         <v>40791</v>
       </c>
     </row>
-    <row r="3" ht="18.25" customHeight="1">
-      <c r="A3" t="s" s="27">
+    <row r="3" spans="1:15" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="27">
+      <c r="D3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="27">
+      <c r="E3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="27">
+      <c r="F3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="27">
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s" s="27">
+      <c r="H3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s" s="27">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s" s="27">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s" s="27">
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s" s="27">
+      <c r="L3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s" s="27">
+      <c r="M3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s" s="27">
+      <c r="N3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s" s="27">
+      <c r="O3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="20.55" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" t="s" s="35">
+    <row r="4" spans="1:15" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="D4:D24"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3388,511 +3432,499 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="38" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="38" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="38" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="38" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="38" customWidth="1"/>
-    <col min="16" max="256" width="9" style="38" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" style="30" customWidth="1"/>
+    <col min="2" max="15" width="9.09765625" style="30" customWidth="1"/>
+    <col min="16" max="256" width="9" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21">
         <v>40778</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="21">
         <v>40779</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="21">
         <v>40780</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="21">
         <v>40781</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="21">
         <v>40782</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="21">
         <v>40783</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="21">
         <v>40784</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="21">
         <v>40785</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="21">
         <v>40786</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="21">
         <v>40787</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="21">
         <v>40788</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="21">
         <v>40789</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="21">
         <v>40790</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="21">
         <v>40791</v>
       </c>
     </row>
-    <row r="3" ht="18.25" customHeight="1">
-      <c r="A3" t="s" s="27">
+    <row r="3" spans="1:15" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="27">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="27">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="27">
+      <c r="D3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s" s="27">
+      <c r="E3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s" s="27">
+      <c r="F3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s" s="27">
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s" s="27">
+      <c r="H3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s" s="27">
+      <c r="I3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s" s="27">
+      <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s" s="27">
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s" s="27">
+      <c r="L3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s" s="27">
+      <c r="M3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s" s="39">
+      <c r="N3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s" s="27">
+      <c r="O3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="20.55" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="41"/>
-      <c r="N4" t="s" s="42">
+    <row r="4" spans="1:15" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="43"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="43"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="43"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="43"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="43"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="43"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="43"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="43"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="43"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="43"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="43"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="43"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="43"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="43"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="43"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="43"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="43"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="43"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="N4:N24"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -3900,136 +3932,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="46" customWidth="1"/>
-    <col min="2" max="2" width="10" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10" style="46" customWidth="1"/>
-    <col min="4" max="4" width="10" style="46" customWidth="1"/>
-    <col min="5" max="5" width="10" style="46" customWidth="1"/>
-    <col min="6" max="256" width="10" style="46" customWidth="1"/>
+    <col min="1" max="256" width="10" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" ht="20" customHeight="1">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="20"/>
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1" style="48" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="48" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="48" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="48" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="48" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="48" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="48" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="48" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="48" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="48" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="48" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="48" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="48" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="48" customWidth="1"/>
-    <col min="17" max="256" width="9" style="48" customWidth="1"/>
+    <col min="1" max="1" width="1" style="37" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="37" customWidth="1"/>
+    <col min="3" max="8" width="21.19921875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.09765625" style="37" customWidth="1"/>
+    <col min="10" max="15" width="21.19921875" style="37" customWidth="1"/>
+    <col min="16" max="16" width="9.09765625" style="37" customWidth="1"/>
+    <col min="17" max="256" width="9" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4047,328 +4064,329 @@
       <c r="O1" s="3"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" t="s" s="49">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="51"/>
-    </row>
-    <row r="3" ht="18.8" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
         <v>40750</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="21">
         <v>40751</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="21">
         <v>40752</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="21">
         <v>40753</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="21">
         <v>40754</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="21">
         <v>40755</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="21">
         <v>40756</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="21">
         <v>40757</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="21">
         <v>40758</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="21">
         <v>40759</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="21">
         <v>40760</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="21">
         <v>40761</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="21">
         <v>40762</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="21">
         <v>40763</v>
       </c>
     </row>
-    <row r="4" ht="16.85" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" t="s" s="27">
+    <row r="4" spans="1:16" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s" s="27">
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s" s="27">
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s" s="27">
+      <c r="E4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s" s="27">
+      <c r="F4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="27">
+      <c r="G4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s" s="27">
+      <c r="H4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s" s="27">
+      <c r="I4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s" s="27">
+      <c r="J4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s" s="27">
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s" s="27">
+      <c r="L4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s" s="27">
+      <c r="M4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N4" t="s" s="27">
+      <c r="N4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s" s="27">
+      <c r="O4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="P4" t="s" s="27">
+      <c r="P4" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="114.3" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" t="s" s="53">
+    <row r="5" spans="1:16" ht="114.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" t="s" s="29">
+      <c r="C5" s="25"/>
+      <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
-    </row>
-    <row r="6" ht="93.8" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" ht="36.5" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-    </row>
-    <row r="8" ht="40" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
-    </row>
-    <row r="9" ht="18.8" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
-    </row>
-    <row r="10" ht="18.8" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-    </row>
-    <row r="11" ht="18.8" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" ht="18.8" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
-    </row>
-    <row r="13" ht="18.8" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-    </row>
-    <row r="14" ht="18.8" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-    </row>
-    <row r="15" ht="18.8" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:P2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/Document/进度/张朝帅.xlsx
+++ b/Document/进度/张朝帅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 表单上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>商品查询，订单表设计不合理需修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录、注册、商品详情、商品展示修复，订单相关表修改，支付宝待审核中</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -711,6 +715,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -751,9 +758,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -877,7 +881,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2264,11 +2268,11 @@
     </row>
     <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2416,8 +2420,8 @@
   </sheetPr>
   <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2429,16 +2433,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
@@ -2495,16 +2499,18 @@
       <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
     </row>
@@ -2628,7 +2634,9 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2638,23 +2646,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
@@ -2938,7 +2946,9 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2948,23 +2958,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
@@ -3062,7 +3072,7 @@
       <c r="A4" s="27"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="25"/>
@@ -3081,7 +3091,7 @@
       <c r="A5" s="27"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -3098,7 +3108,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -3115,7 +3125,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -3132,7 +3142,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="47"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -3149,7 +3159,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -3166,7 +3176,7 @@
       <c r="A10" s="27"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="47"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -3183,7 +3193,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="47"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -3200,7 +3210,7 @@
       <c r="A12" s="27"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="47"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -3217,7 +3227,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -3234,7 +3244,7 @@
       <c r="A14" s="27"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -3251,7 +3261,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -3268,7 +3278,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -3285,7 +3295,7 @@
       <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -3302,7 +3312,7 @@
       <c r="A18" s="27"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -3319,7 +3329,7 @@
       <c r="A19" s="27"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -3336,7 +3346,7 @@
       <c r="A20" s="27"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="47"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -3353,7 +3363,7 @@
       <c r="A21" s="27"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -3370,7 +3380,7 @@
       <c r="A22" s="27"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="47"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -3387,7 +3397,7 @@
       <c r="A23" s="27"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -3404,7 +3414,7 @@
       <c r="A24" s="27"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -3438,7 +3448,9 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3448,23 +3460,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
@@ -3572,7 +3584,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="33"/>
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="50" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="34"/>
@@ -3591,7 +3603,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="33"/>
-      <c r="N5" s="50"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="34"/>
     </row>
     <row r="6" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3608,7 +3620,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="50"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3625,7 +3637,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3642,7 +3654,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="33"/>
-      <c r="N8" s="50"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3659,7 +3671,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,7 +3688,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="50"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="34"/>
     </row>
     <row r="11" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3693,7 +3705,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="33"/>
-      <c r="N11" s="50"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3710,7 +3722,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="33"/>
-      <c r="N12" s="50"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3727,7 +3739,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="50"/>
+      <c r="N13" s="51"/>
       <c r="O13" s="34"/>
     </row>
     <row r="14" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3744,7 +3756,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="50"/>
+      <c r="N14" s="51"/>
       <c r="O14" s="34"/>
     </row>
     <row r="15" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3761,7 +3773,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="51"/>
       <c r="O15" s="34"/>
     </row>
     <row r="16" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3778,7 +3790,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="33"/>
-      <c r="N16" s="50"/>
+      <c r="N16" s="51"/>
       <c r="O16" s="34"/>
     </row>
     <row r="17" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3795,7 +3807,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="33"/>
-      <c r="N17" s="50"/>
+      <c r="N17" s="51"/>
       <c r="O17" s="34"/>
     </row>
     <row r="18" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3812,7 +3824,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="33"/>
-      <c r="N18" s="50"/>
+      <c r="N18" s="51"/>
       <c r="O18" s="34"/>
     </row>
     <row r="19" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,7 +3841,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="50"/>
+      <c r="N19" s="51"/>
       <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3846,7 +3858,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="33"/>
-      <c r="N20" s="50"/>
+      <c r="N20" s="51"/>
       <c r="O20" s="34"/>
     </row>
     <row r="21" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,7 +3875,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="33"/>
-      <c r="N21" s="50"/>
+      <c r="N21" s="51"/>
       <c r="O21" s="34"/>
     </row>
     <row r="22" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3880,7 +3892,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="33"/>
-      <c r="N22" s="50"/>
+      <c r="N22" s="51"/>
       <c r="O22" s="34"/>
     </row>
     <row r="23" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3897,7 +3909,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="33"/>
-      <c r="N23" s="50"/>
+      <c r="N23" s="51"/>
       <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -3914,7 +3926,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
       <c r="M24" s="33"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="52"/>
       <c r="O24" s="34"/>
     </row>
   </sheetData>
@@ -4066,23 +4078,23 @@
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38"/>

--- a/Document/进度/张朝帅.xlsx
+++ b/Document/进度/张朝帅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 表单上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -182,6 +182,22 @@
   </si>
   <si>
     <t>登录、注册、商品详情、商品展示修复，订单相关表修改，支付宝待审核中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片可删除</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱验证测试</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周任务整理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +897,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2420,8 +2436,8 @@
   </sheetPr>
   <dimension ref="A1:IV14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2511,7 +2527,9 @@
       <c r="F4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2634,8 +2652,8 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2758,7 +2776,9 @@
     </row>
     <row r="4" spans="1:15" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -2775,7 +2795,9 @@
     </row>
     <row r="5" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
-      <c r="B5" s="25"/>
+      <c r="B5" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -2792,7 +2814,9 @@
     </row>
     <row r="6" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -2932,7 +2956,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/Document/进度/张朝帅.xlsx
+++ b/Document/进度/张朝帅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="44">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 表单上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -198,6 +198,26 @@
   </si>
   <si>
     <t>一周任务整理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户更新补全</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2652,8 +2672,8 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2779,8 +2799,12 @@
       <c r="B4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -2798,8 +2822,12 @@
       <c r="B5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -2817,7 +2845,9 @@
       <c r="B6" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -2970,7 +3000,7 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
